--- a/Data/semantic_component_elbow_loc_sens.xlsx
+++ b/Data/semantic_component_elbow_loc_sens.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erezfreud/Documents/Shape_Sensitivity_LifeSpan/Analyzed/Shape_Sensetivity_LifeSpan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Jenn\Documents\ShapeSensitivity\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB0E8FF-3493-41BF-ABD0-17974F86DA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500"/>
+    <workbookView xWindow="-28920" yWindow="-435" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="17">
   <si>
     <t>ventral_right</t>
   </si>
@@ -64,11 +73,26 @@
   <si>
     <t>Dorsal_left</t>
   </si>
+  <si>
+    <t>ventral</t>
+  </si>
+  <si>
+    <t>Hemi</t>
+  </si>
+  <si>
+    <t>dorsal</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -110,12 +134,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -154,7 +181,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -231,20 +257,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.132199151298118</c:v>
+                  <c:v>0.13219915129811827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06974774546488</c:v>
+                  <c:v>6.9747745464880009E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.297260511159666</c:v>
+                  <c:v>-0.2972605111596664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.44393730773097</c:v>
+                  <c:v>-0.44393730773097001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB27-4A44-B112-5420B6A585ED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -333,6 +364,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -413,7 +445,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -457,7 +489,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -534,20 +565,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.167370917221633</c:v>
+                  <c:v>0.1673709172216328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.181585901083568</c:v>
+                  <c:v>0.18158590108356829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.164435417840697</c:v>
+                  <c:v>0.16443541784069682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.165036945213332</c:v>
+                  <c:v>0.16503694521333154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00AC-4D94-879A-9E6F710FFEDD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -618,7 +654,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -636,6 +672,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1807,20 +1844,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1838,19 +1881,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>815975</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2130,20 +2179,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2162,8 +2213,14 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2182,8 +2239,14 @@
       <c r="F2">
         <v>9.6274151946810105E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2202,8 +2265,14 @@
       <c r="F3">
         <v>0.37659046745921598</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2222,6 +2291,12 @@
       <c r="F4">
         <v>0.28116363610120199</v>
       </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2265,6 +2340,12 @@
       </c>
       <c r="F5">
         <v>8.0480193792189805E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
       <c r="I5">
         <f>AVERAGE(F2:F13)</f>
@@ -2299,7 +2380,7 @@
         <v>0.16503694521333154</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2318,8 +2399,14 @@
       <c r="F6">
         <v>-0.12773556755613799</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2338,8 +2425,14 @@
       <c r="F7">
         <v>0.12586179320542801</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2358,8 +2451,14 @@
       <c r="F8">
         <v>0.101536769262896</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2378,8 +2477,14 @@
       <c r="F9">
         <v>0.453006414528278</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2398,8 +2503,14 @@
       <c r="F10">
         <v>0.12528887043284601</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2418,8 +2529,14 @@
       <c r="F11">
         <v>0.188625275626226</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2438,8 +2555,14 @@
       <c r="F12">
         <v>-0.263392240167936</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2458,8 +2581,14 @@
       <c r="F13">
         <v>0.148690050946401</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2478,8 +2607,14 @@
       <c r="F14">
         <v>0.132518452955836</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2498,8 +2633,14 @@
       <c r="F15">
         <v>0.34610853836792499</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2518,8 +2659,14 @@
       <c r="F16">
         <v>7.9314122495575803E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2538,8 +2685,14 @@
       <c r="F17">
         <v>-6.4668793613824799E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2558,8 +2711,14 @@
       <c r="F18">
         <v>2.4563251647889899E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2578,8 +2737,14 @@
       <c r="F19">
         <v>-4.2002955094450397E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2598,8 +2763,14 @@
       <c r="F20">
         <v>0.28131154349431498</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2618,8 +2789,14 @@
       <c r="F21">
         <v>9.87265739606661E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2638,8 +2815,14 @@
       <c r="F22">
         <v>2.5131378428975299E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2658,8 +2841,14 @@
       <c r="F23">
         <v>0.11594171661125401</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2678,8 +2867,14 @@
       <c r="F24">
         <v>-0.23575770676642099</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2698,8 +2893,14 @@
       <c r="F25">
         <v>3.7984163505813899E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2718,8 +2919,18 @@
       <c r="F26">
         <v>-0.44220743852176703</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <f>_xlfn.T.TEST(B2:B13,B14:B25,2,1)</f>
+        <v>9.63560670694775E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2738,8 +2949,18 @@
       <c r="F27">
         <v>0.25516191975345898</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <f>_xlfn.T.TEST(B26:B37,B38:B49,2,1)</f>
+        <v>4.8975972548603607E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2758,8 +2979,18 @@
       <c r="F28">
         <v>7.5129225544154493E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <f>_xlfn.T.TEST(B2:B25,B26:B49,2,1)</f>
+        <v>2.8707914195603741E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2778,8 +3009,14 @@
       <c r="F29">
         <v>-0.421494255083876</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2798,8 +3035,14 @@
       <c r="F30">
         <v>-0.50660782242699298</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2818,8 +3061,14 @@
       <c r="F31">
         <v>-0.322963754225425</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2838,8 +3087,14 @@
       <c r="F32">
         <v>-0.281032167832587</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2858,8 +3113,14 @@
       <c r="F33">
         <v>-3.23425956653502E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2878,8 +3139,14 @@
       <c r="F34">
         <v>-0.43370026060610101</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2898,8 +3165,14 @@
       <c r="F35">
         <v>-0.59473449363036801</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2918,8 +3191,14 @@
       <c r="F36">
         <v>-0.39060875894652802</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2938,8 +3217,14 @@
       <c r="F37">
         <v>-0.50083406837343003</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2958,8 +3243,14 @@
       <c r="F38">
         <v>-0.29518572726336201</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2978,8 +3269,14 @@
       <c r="F39">
         <v>-0.31876678150077697</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2998,8 +3295,14 @@
       <c r="F40">
         <v>-0.20055724267329</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3018,8 +3321,14 @@
       <c r="F41">
         <v>-0.36690922381880198</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3038,8 +3347,14 @@
       <c r="F42">
         <v>-0.41190019769675301</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3058,8 +3373,14 @@
       <c r="F43">
         <v>-0.40803577563267301</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3078,8 +3399,14 @@
       <c r="F44">
         <v>-0.63201921967547403</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3098,8 +3425,14 @@
       <c r="F45">
         <v>-0.417802216794049</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3118,8 +3451,14 @@
       <c r="F46">
         <v>-0.54662666234453605</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3138,8 +3477,14 @@
       <c r="F47">
         <v>-0.70115947011800595</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3158,8 +3503,14 @@
       <c r="F48">
         <v>-0.44563496122769702</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3177,6 +3528,12 @@
       </c>
       <c r="F49">
         <v>-0.58265021402622097</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Data/semantic_component_elbow_loc_sens.xlsx
+++ b/Data/semantic_component_elbow_loc_sens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Jenn\Documents\ShapeSensitivity\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB0E8FF-3493-41BF-ABD0-17974F86DA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034B18B9-60BB-4790-B1AE-8E7F43EE61A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-435" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="18">
   <si>
     <t>ventral_right</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>left</t>
+  </si>
+  <si>
+    <t>Pathway</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2186,7 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2214,10 +2217,10 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
